--- a/result/results.xlsx
+++ b/result/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school\druhak - summer\rocnikovka\project\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711B27AE-BE92-4BC2-9A65-8C457AB9E15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD557473-0787-440D-8C53-116DC6AC2B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sea_res_combine_two" sheetId="2" r:id="rId1"/>
@@ -23,46 +23,21 @@
     <definedName name="_xlchart.v1.1" hidden="1">sea_res_normal!$C$91</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">graph!$AB$3</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">graph!$AB$4:$AB$16</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">graph!$AC$3</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">graph!$AC$4:$AC$16</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">graph!$AA$4:$AA$16</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">graph!$AB$3</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">graph!$AB$4:$AB$16</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">graph!$AC$3</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">graph!$AC$4:$AC$16</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">graph!$AK$4:$AK$16</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">graph!$AD$3</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">graph!$AD$4:$AD$16</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">graph!$BC$6:$BC$26</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">graph!$BD$5</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">graph!$BD$6:$BD$26</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">graph!$BB$6:$BB$26</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">graph!$BC$5</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">graph!$BC$6:$BC$26</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">sea_res_normal!$C$92:$C$104</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">graph!$AL$3</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">graph!$AL$4:$AL$16</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">graph!$AK$4:$AK$16</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">graph!$AM$3</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">graph!$AM$4:$AM$16</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">graph!$AA$4:$AA$16</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">graph!$AB$3</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">graph!$AB$4:$AB$16</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">graph!$AA$4:$AA$16</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">graph!$AB$3</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">graph!$AA$4:$AA$16</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">graph!$AB$4:$AB$16</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">graph!$AA$4:$AA$16</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">graph!$AB$3</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">graph!$AB$4:$AB$16</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">graph!$AA$4:$AA$16</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">graph!$AB$3</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">graph!$AB$4:$AB$16</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">graph!$AA$4:$AA$16</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">graph!$AB$3</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">graph!$AB$4:$AB$16</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">graph!$AB$3</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">graph!$AA$4:$AA$16</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">graph!$AB$3</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">graph!$AB$4:$AB$16</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">graph!$AD$3</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">graph!$AD$4:$AD$16</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">graph!$AB$4:$AB$16</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">graph!$AA$4:$AA$16</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">graph!$AB$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">graph!$AB$4:$AB$16</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">graph!$AD$3</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">graph!$AD$4:$AD$16</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">graph!$AM$4:$AM$16</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">graph!$AN$3</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">graph!$AN$4:$AN$16</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">graph!$AA$4:$AA$16</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">sea_res_combine_two!$A$1:$D$79</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">sea_res_normal!$A$1:$D$88</definedName>
@@ -103,7 +78,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -125,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="258">
   <si>
     <t>query</t>
   </si>
@@ -893,13 +868,26 @@
   </si>
   <si>
     <t>dotazů</t>
+  </si>
+  <si>
+    <t>cumul_1</t>
+  </si>
+  <si>
+    <t>cumul_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -925,14 +913,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Procenta" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -1718,6 +1709,846 @@
   <c:spPr>
     <a:solidFill>
       <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graph!$AB$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>graph!$AA$4:$AA$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>graph!$AB$4:$AB$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9B2-4ED0-B832-1EC1FD273E1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graph!$AD$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>graph!$AA$4:$AA$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>graph!$AD$4:$AD$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A9B2-4ED0-B832-1EC1FD273E1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="40"/>
+        <c:axId val="1383827375"/>
+        <c:axId val="1383838607"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graph!$AC$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cumul_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>graph!$AA$4:$AA$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>graph!$AC$4:$AC$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.57731958762886593</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72164948453608246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82474226804123707</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.865979381443299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90721649484536082</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95876288659793818</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97938144329896903</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98969072164948457</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98969072164948457</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A9B2-4ED0-B832-1EC1FD273E1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graph!$AE$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cumul_2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>graph!$AA$4:$AA$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>graph!$AE$4:$AE$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97333333333333338</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A9B2-4ED0-B832-1EC1FD273E1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1383834447"/>
+        <c:axId val="1383836943"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1383827375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1383838607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1383838607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1383827375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1383836943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1383834447"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1383834447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1383836943"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -5743,7 +6574,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>graph!$AC$3</c:f>
+              <c:f>graph!$AD$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5814,7 +6645,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>graph!$AC$4:$AC$16</c:f>
+              <c:f>graph!$AD$4:$AD$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5871,7 +6702,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>graph!$AD$3</c:f>
+              <c:f>graph!$AF$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5942,7 +6773,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>graph!$AD$4:$AD$16</c:f>
+              <c:f>graph!$AF$4:$AF$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -6271,7 +7102,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>graph!$AG$3</c:f>
+              <c:f>graph!$AI$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6294,7 +7125,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>graph!$AF$4:$AF$13</c:f>
+              <c:f>graph!$AH$4:$AH$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6333,7 +7164,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>graph!$AG$4:$AG$13</c:f>
+              <c:f>graph!$AI$4:$AI$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6381,7 +7212,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>graph!$AH$3</c:f>
+              <c:f>graph!$AJ$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6404,7 +7235,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>graph!$AF$4:$AF$13</c:f>
+              <c:f>graph!$AH$4:$AH$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6443,7 +7274,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>graph!$AH$4:$AH$13</c:f>
+              <c:f>graph!$AJ$4:$AJ$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6491,7 +7322,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>graph!$AI$3</c:f>
+              <c:f>graph!$AK$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6514,7 +7345,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>graph!$AF$4:$AF$13</c:f>
+              <c:f>graph!$AH$4:$AH$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6553,7 +7384,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>graph!$AI$4:$AI$13</c:f>
+              <c:f>graph!$AK$4:$AK$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6849,18 +7680,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6871,7 +7702,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{7032940F-9C0E-465B-9EA4-C17E972CFCB9}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.15</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6887,7 +7718,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{00000001-05A7-4DCD-A9D8-3F823F19060A}" formatIdx="2">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.17</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>2</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6925,10 +7756,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6939,7 +7770,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{DC20ED9B-B306-4AFF-9EBD-3E2D7085C26A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>2</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6950,7 +7781,7 @@
           <cx:axisId val="1"/>
         </cx:series>
         <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{93918B8D-3A6A-4658-9513-2474337D4493}">
-          <cx:axisId val="3"/>
+          <cx:axisId val="2"/>
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
@@ -6962,7 +7793,7 @@
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
-      <cx:axis id="3">
+      <cx:axis id="2">
         <cx:valScaling max="1" min="0"/>
         <cx:units unit="percentage"/>
         <cx:tickLabels/>
@@ -6977,10 +7808,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6991,7 +7822,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{7C9CECB4-F37D-4BE4-9D92-FDC7D512C92C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.7</cx:f>
               <cx:v>2</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7185,6 +8016,46 @@
 </file>
 
 <file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10064,6 +10935,522 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -14438,7 +15825,7 @@
       <xdr:rowOff>129989</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>212911</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>4483</xdr:rowOff>
@@ -14477,8 +15864,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="16214911" y="3715871"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="16331452" y="3787589"/>
+              <a:ext cx="4607859" cy="2800574"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14510,13 +15897,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>398928</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>147919</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>129987</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>22413</xdr:rowOff>
@@ -14555,8 +15942,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="20972928" y="3733801"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="21125328" y="3805519"/>
+              <a:ext cx="3998259" cy="2800574"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14588,13 +15975,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>336177</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>163606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>67236</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -14633,8 +16020,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="25751118" y="3749488"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="25329777" y="3821206"/>
+              <a:ext cx="4607859" cy="2800574"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14662,6 +16049,42 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>142351</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Graf 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8E3508-8029-9977-D0C3-06C654085000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -18869,7 +20292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5231B238-2E08-427C-A0F7-16AC5E48A7B2}">
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+    <sheetView zoomScale="102" workbookViewId="0">
       <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
@@ -20887,41 +22310,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="AA3:AM18"/>
+  <dimension ref="AA3:BE26"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="AR7" sqref="AR7"/>
+    <sheetView tabSelected="1" topLeftCell="V35" zoomScale="146" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="29" max="29" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="27:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="27:57" x14ac:dyDescent="0.3">
       <c r="AB3">
         <v>1</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AD3">
         <v>2</v>
       </c>
-      <c r="AD3">
+      <c r="AE3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AF3">
         <v>3</v>
       </c>
-      <c r="AG3">
+      <c r="AI3">
         <v>1</v>
       </c>
-      <c r="AH3">
+      <c r="AJ3">
         <v>2</v>
       </c>
-      <c r="AI3">
+      <c r="AK3">
         <v>3</v>
       </c>
-      <c r="AL3">
+      <c r="AN3">
         <v>2</v>
       </c>
-      <c r="AM3">
+      <c r="AO3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="27:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="27:57" x14ac:dyDescent="0.3">
       <c r="AA4">
         <v>1000</v>
       </c>
@@ -20929,42 +22361,50 @@
         <f>sea_res_combine_two!C82+sea_res_normal!C92+sea_res_same!D78</f>
         <v>56</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="1">
+        <f>SUM($AB$4:AB4)/SUM($AB$4:$AB$16)</f>
+        <v>0.57731958762886593</v>
+      </c>
+      <c r="AD4">
         <f>sea_res_combine_two!D82+sea_res_normal!D92+sea_res_same!E78</f>
         <v>48</v>
       </c>
-      <c r="AD4">
+      <c r="AE4" s="1">
+        <f>SUM($AD$4:AD4)/SUM($AD$4:$AD$16)</f>
+        <v>0.64</v>
+      </c>
+      <c r="AF4">
         <f>sea_res_combine_two!E82+sea_res_normal!E92+sea_res_same!F78</f>
         <v>40</v>
       </c>
-      <c r="AF4">
+      <c r="AH4">
         <v>100</v>
       </c>
-      <c r="AG4">
+      <c r="AI4">
         <f>sea_res_combine_two!I82+sea_res_normal!I92+sea_res_same!J78</f>
         <v>23</v>
       </c>
-      <c r="AH4">
+      <c r="AJ4">
         <f>sea_res_combine_two!J82+sea_res_normal!J92+sea_res_same!K78</f>
         <v>14</v>
       </c>
-      <c r="AI4">
+      <c r="AK4">
         <f>sea_res_combine_two!K82+sea_res_normal!K92+sea_res_same!L78</f>
         <v>15</v>
       </c>
-      <c r="AK4">
+      <c r="AM4">
         <v>1000</v>
       </c>
-      <c r="AL4">
-        <f>AC4+(AB18-AL17)</f>
+      <c r="AN4">
+        <f>AD4+(AB18-AN17)</f>
         <v>70</v>
       </c>
-      <c r="AM4">
-        <f>AD4+(AB18-AM17)</f>
+      <c r="AO4">
+        <f>AF4+(AB18-AO17)</f>
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="27:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="27:57" x14ac:dyDescent="0.3">
       <c r="AA5">
         <v>3000</v>
       </c>
@@ -20972,42 +22412,50 @@
         <f>sea_res_combine_two!C83+sea_res_normal!C93+sea_res_same!D79</f>
         <v>14</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="1">
+        <f>SUM($AB$4:AB5)/SUM($AB$4:$AB$16)</f>
+        <v>0.72164948453608246</v>
+      </c>
+      <c r="AD5">
         <f>sea_res_combine_two!D83+sea_res_normal!D93+sea_res_same!E79</f>
         <v>15</v>
       </c>
-      <c r="AD5">
+      <c r="AE5" s="1">
+        <f>SUM($AD$4:AD5)/SUM($AD$4:$AD$16)</f>
+        <v>0.84</v>
+      </c>
+      <c r="AF5">
         <f>sea_res_combine_two!E83+sea_res_normal!E93+sea_res_same!F79</f>
         <v>12</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>200</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <f>sea_res_combine_two!I83+sea_res_normal!I93+sea_res_same!J79</f>
         <v>2</v>
       </c>
-      <c r="AH5">
+      <c r="AJ5">
         <f>sea_res_combine_two!J83+sea_res_normal!J93+sea_res_same!K79</f>
         <v>15</v>
       </c>
-      <c r="AI5">
+      <c r="AK5">
         <f>sea_res_combine_two!K83+sea_res_normal!K93+sea_res_same!L79</f>
         <v>9</v>
       </c>
-      <c r="AK5">
+      <c r="AM5">
         <v>3000</v>
       </c>
-      <c r="AL5">
-        <f>AC5</f>
+      <c r="AN5">
+        <f t="shared" ref="AN5:AN16" si="0">AD5</f>
         <v>15</v>
       </c>
-      <c r="AM5">
-        <f>AD5</f>
+      <c r="AO5">
+        <f t="shared" ref="AO5:AO16" si="1">AF5</f>
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="27:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="27:57" x14ac:dyDescent="0.3">
       <c r="AA6">
         <v>5000</v>
       </c>
@@ -21015,42 +22463,51 @@
         <f>sea_res_combine_two!C84+sea_res_normal!C94+sea_res_same!D80</f>
         <v>10</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="1">
+        <f>SUM($AB$4:AB6)/SUM($AB$4:$AB$16)</f>
+        <v>0.82474226804123707</v>
+      </c>
+      <c r="AD6">
         <f>sea_res_combine_two!D84+sea_res_normal!D94+sea_res_same!E80</f>
         <v>4</v>
       </c>
-      <c r="AD6">
+      <c r="AE6" s="1">
+        <f>SUM($AD$4:AD6)/SUM($AD$4:$AD$16)</f>
+        <v>0.89333333333333331</v>
+      </c>
+      <c r="AF6">
         <f>sea_res_combine_two!E84+sea_res_normal!E94+sea_res_same!F80</f>
         <v>4</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <v>300</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <f>sea_res_combine_two!I84+sea_res_normal!I94+sea_res_same!J80</f>
         <v>9</v>
       </c>
-      <c r="AH6">
+      <c r="AJ6">
         <f>sea_res_combine_two!J84+sea_res_normal!J94+sea_res_same!K80</f>
         <v>4</v>
       </c>
-      <c r="AI6">
+      <c r="AK6">
         <f>sea_res_combine_two!K84+sea_res_normal!K94+sea_res_same!L80</f>
         <v>3</v>
       </c>
-      <c r="AK6">
+      <c r="AM6">
         <v>5000</v>
       </c>
-      <c r="AL6">
-        <f>AC6</f>
+      <c r="AN6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AM6">
-        <f>AD6</f>
+      <c r="AO6">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="27:39" x14ac:dyDescent="0.3">
+      <c r="BE6" s="1"/>
+    </row>
+    <row r="7" spans="27:57" x14ac:dyDescent="0.3">
       <c r="AA7">
         <v>7000</v>
       </c>
@@ -21058,42 +22515,51 @@
         <f>sea_res_combine_two!C85+sea_res_normal!C95+sea_res_same!D81</f>
         <v>4</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="1">
+        <f>SUM($AB$4:AB7)/SUM($AB$4:$AB$16)</f>
+        <v>0.865979381443299</v>
+      </c>
+      <c r="AD7">
         <f>sea_res_combine_two!D85+sea_res_normal!D95+sea_res_same!E81</f>
         <v>5</v>
       </c>
-      <c r="AD7">
+      <c r="AE7" s="1">
+        <f>SUM($AD$4:AD7)/SUM($AD$4:$AD$16)</f>
+        <v>0.96</v>
+      </c>
+      <c r="AF7">
         <f>sea_res_combine_two!E85+sea_res_normal!E95+sea_res_same!F81</f>
         <v>4</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <v>400</v>
       </c>
-      <c r="AG7">
+      <c r="AI7">
         <f>sea_res_combine_two!I85+sea_res_normal!I95+sea_res_same!J81</f>
         <v>5</v>
       </c>
-      <c r="AH7">
+      <c r="AJ7">
         <f>sea_res_combine_two!J85+sea_res_normal!J95+sea_res_same!K81</f>
         <v>2</v>
       </c>
-      <c r="AI7">
+      <c r="AK7">
         <f>sea_res_combine_two!K85+sea_res_normal!K95+sea_res_same!L81</f>
         <v>4</v>
       </c>
-      <c r="AK7">
+      <c r="AM7">
         <v>7000</v>
       </c>
-      <c r="AL7">
-        <f>AC7</f>
+      <c r="AN7">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AM7">
-        <f>AD7</f>
+      <c r="AO7">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="27:39" x14ac:dyDescent="0.3">
+      <c r="BE7" s="1"/>
+    </row>
+    <row r="8" spans="27:57" x14ac:dyDescent="0.3">
       <c r="AA8">
         <v>8000</v>
       </c>
@@ -21101,42 +22567,51 @@
         <f>sea_res_combine_two!C86+sea_res_normal!C96+sea_res_same!D82</f>
         <v>4</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="1">
+        <f>SUM($AB$4:AB8)/SUM($AB$4:$AB$16)</f>
+        <v>0.90721649484536082</v>
+      </c>
+      <c r="AD8">
         <f>sea_res_combine_two!D86+sea_res_normal!D96+sea_res_same!E82</f>
         <v>1</v>
       </c>
-      <c r="AD8">
+      <c r="AE8" s="1">
+        <f>SUM($AD$4:AD8)/SUM($AD$4:$AD$16)</f>
+        <v>0.97333333333333338</v>
+      </c>
+      <c r="AF8">
         <f>sea_res_combine_two!E86+sea_res_normal!E96+sea_res_same!F82</f>
         <v>1</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <v>500</v>
       </c>
-      <c r="AG8">
+      <c r="AI8">
         <f>sea_res_combine_two!I86+sea_res_normal!I96+sea_res_same!J82</f>
         <v>2</v>
       </c>
-      <c r="AH8">
+      <c r="AJ8">
         <f>sea_res_combine_two!J86+sea_res_normal!J96+sea_res_same!K82</f>
         <v>3</v>
       </c>
-      <c r="AI8">
+      <c r="AK8">
         <f>sea_res_combine_two!K86+sea_res_normal!K96+sea_res_same!L82</f>
         <v>2</v>
       </c>
-      <c r="AK8">
+      <c r="AM8">
         <v>9000</v>
       </c>
-      <c r="AL8">
-        <f>AC8</f>
+      <c r="AN8">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AM8">
-        <f>AD8</f>
+      <c r="AO8">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="27:39" x14ac:dyDescent="0.3">
+      <c r="BE8" s="1"/>
+    </row>
+    <row r="9" spans="27:57" x14ac:dyDescent="0.3">
       <c r="AA9">
         <v>11000</v>
       </c>
@@ -21144,42 +22619,51 @@
         <f>sea_res_combine_two!C87+sea_res_normal!C97+sea_res_same!D83</f>
         <v>5</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="1">
+        <f>SUM($AB$4:AB9)/SUM($AB$4:$AB$16)</f>
+        <v>0.95876288659793818</v>
+      </c>
+      <c r="AD9">
         <f>sea_res_combine_two!D87+sea_res_normal!D97+sea_res_same!E83</f>
         <v>1</v>
       </c>
-      <c r="AD9">
+      <c r="AE9" s="1">
+        <f>SUM($AD$4:AD9)/SUM($AD$4:$AD$16)</f>
+        <v>0.98666666666666669</v>
+      </c>
+      <c r="AF9">
         <f>sea_res_combine_two!E87+sea_res_normal!E97+sea_res_same!F83</f>
         <v>2</v>
       </c>
-      <c r="AF9">
+      <c r="AH9">
         <v>600</v>
       </c>
-      <c r="AG9">
+      <c r="AI9">
         <f>sea_res_combine_two!I87+sea_res_normal!I97+sea_res_same!J83</f>
         <v>3</v>
       </c>
-      <c r="AH9">
+      <c r="AJ9">
         <f>sea_res_combine_two!J87+sea_res_normal!J97+sea_res_same!K83</f>
         <v>3</v>
       </c>
-      <c r="AI9">
+      <c r="AK9">
         <f>sea_res_combine_two!K87+sea_res_normal!K97+sea_res_same!L83</f>
         <v>2</v>
       </c>
-      <c r="AK9">
+      <c r="AM9">
         <v>11000</v>
       </c>
-      <c r="AL9">
-        <f>AC9</f>
+      <c r="AN9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AM9">
-        <f>AD9</f>
+      <c r="AO9">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="27:39" x14ac:dyDescent="0.3">
+      <c r="BE9" s="1"/>
+    </row>
+    <row r="10" spans="27:57" x14ac:dyDescent="0.3">
       <c r="AA10">
         <v>13000</v>
       </c>
@@ -21187,42 +22671,51 @@
         <f>sea_res_combine_two!C88+sea_res_normal!C98+sea_res_same!D84</f>
         <v>2</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="1">
+        <f>SUM($AB$4:AB10)/SUM($AB$4:$AB$16)</f>
+        <v>0.97938144329896903</v>
+      </c>
+      <c r="AD10">
         <f>sea_res_combine_two!D88+sea_res_normal!D98+sea_res_same!E84</f>
         <v>0</v>
       </c>
-      <c r="AD10">
+      <c r="AE10" s="1">
+        <f>SUM($AD$4:AD10)/SUM($AD$4:$AD$16)</f>
+        <v>0.98666666666666669</v>
+      </c>
+      <c r="AF10">
         <f>sea_res_combine_two!E88+sea_res_normal!E98+sea_res_same!F84</f>
         <v>1</v>
       </c>
-      <c r="AF10">
+      <c r="AH10">
         <v>700</v>
       </c>
-      <c r="AG10">
+      <c r="AI10">
         <f>sea_res_combine_two!I88+sea_res_normal!I98+sea_res_same!J84</f>
         <v>4</v>
       </c>
-      <c r="AH10">
+      <c r="AJ10">
         <f>sea_res_combine_two!J88+sea_res_normal!J98+sea_res_same!K84</f>
         <v>4</v>
       </c>
-      <c r="AI10">
+      <c r="AK10">
         <f>sea_res_combine_two!K88+sea_res_normal!K98+sea_res_same!L84</f>
         <v>1</v>
       </c>
-      <c r="AK10">
+      <c r="AM10">
         <v>13000</v>
       </c>
-      <c r="AL10">
-        <f>AC10</f>
+      <c r="AN10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM10">
-        <f>AD10</f>
+      <c r="AO10">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="27:39" x14ac:dyDescent="0.3">
+      <c r="BE10" s="1"/>
+    </row>
+    <row r="11" spans="27:57" x14ac:dyDescent="0.3">
       <c r="AA11">
         <v>15000</v>
       </c>
@@ -21230,42 +22723,51 @@
         <f>sea_res_combine_two!C89+sea_res_normal!C99+sea_res_same!D85</f>
         <v>1</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="1">
+        <f>SUM($AB$4:AB11)/SUM($AB$4:$AB$16)</f>
+        <v>0.98969072164948457</v>
+      </c>
+      <c r="AD11">
         <f>sea_res_combine_two!D89+sea_res_normal!D99+sea_res_same!E85</f>
         <v>0</v>
       </c>
-      <c r="AD11">
+      <c r="AE11" s="1">
+        <f>SUM($AD$4:AD11)/SUM($AD$4:$AD$16)</f>
+        <v>0.98666666666666669</v>
+      </c>
+      <c r="AF11">
         <f>sea_res_combine_two!E89+sea_res_normal!E99+sea_res_same!F85</f>
         <v>1</v>
       </c>
-      <c r="AF11">
+      <c r="AH11">
         <v>800</v>
       </c>
-      <c r="AG11">
+      <c r="AI11">
         <f>sea_res_combine_two!I89+sea_res_normal!I99+sea_res_same!J85</f>
         <v>2</v>
       </c>
-      <c r="AH11">
+      <c r="AJ11">
         <f>sea_res_combine_two!J89+sea_res_normal!J99+sea_res_same!K85</f>
         <v>2</v>
       </c>
-      <c r="AI11">
+      <c r="AK11">
         <f>sea_res_combine_two!K89+sea_res_normal!K99+sea_res_same!L85</f>
         <v>0</v>
       </c>
-      <c r="AK11">
+      <c r="AM11">
         <v>15000</v>
       </c>
-      <c r="AL11">
-        <f>AC11</f>
+      <c r="AN11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM11">
-        <f>AD11</f>
+      <c r="AO11">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="27:39" x14ac:dyDescent="0.3">
+      <c r="BE11" s="1"/>
+    </row>
+    <row r="12" spans="27:57" x14ac:dyDescent="0.3">
       <c r="AA12">
         <v>17000</v>
       </c>
@@ -21273,42 +22775,51 @@
         <f>sea_res_combine_two!C90+sea_res_normal!C100+sea_res_same!D86</f>
         <v>0</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="1">
+        <f>SUM($AB$4:AB12)/SUM($AB$4:$AB$16)</f>
+        <v>0.98969072164948457</v>
+      </c>
+      <c r="AD12">
         <f>sea_res_combine_two!D90+sea_res_normal!D100+sea_res_same!E86</f>
         <v>1</v>
       </c>
-      <c r="AD12">
+      <c r="AE12" s="1">
+        <f>SUM($AD$4:AD12)/SUM($AD$4:$AD$16)</f>
+        <v>1</v>
+      </c>
+      <c r="AF12">
         <f>sea_res_combine_two!E90+sea_res_normal!E100+sea_res_same!F86</f>
         <v>0</v>
       </c>
-      <c r="AF12">
+      <c r="AH12">
         <v>900</v>
       </c>
-      <c r="AG12">
+      <c r="AI12">
         <f>sea_res_combine_two!I90+sea_res_normal!I100+sea_res_same!J86</f>
         <v>4</v>
       </c>
-      <c r="AH12">
+      <c r="AJ12">
         <f>sea_res_combine_two!J90+sea_res_normal!J100+sea_res_same!K86</f>
         <v>1</v>
       </c>
-      <c r="AI12">
+      <c r="AK12">
         <f>sea_res_combine_two!K90+sea_res_normal!K100+sea_res_same!L86</f>
         <v>2</v>
       </c>
-      <c r="AK12">
+      <c r="AM12">
         <v>17000</v>
       </c>
-      <c r="AL12">
-        <f>AC12</f>
+      <c r="AN12">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AM12">
-        <f>AD12</f>
+      <c r="AO12">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="27:39" x14ac:dyDescent="0.3">
+      <c r="BE12" s="1"/>
+    </row>
+    <row r="13" spans="27:57" x14ac:dyDescent="0.3">
       <c r="AA13">
         <v>19000</v>
       </c>
@@ -21316,42 +22827,51 @@
         <f>sea_res_combine_two!C91+sea_res_normal!C101+sea_res_same!D87</f>
         <v>1</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" s="1">
+        <f>SUM($AB$4:AB13)/SUM($AB$4:$AB$16)</f>
+        <v>1</v>
+      </c>
+      <c r="AD13">
         <f>sea_res_combine_two!D91+sea_res_normal!D101+sea_res_same!E87</f>
         <v>0</v>
       </c>
-      <c r="AD13">
+      <c r="AE13" s="1">
+        <f>SUM($AD$4:AD13)/SUM($AD$4:$AD$16)</f>
+        <v>1</v>
+      </c>
+      <c r="AF13">
         <f>sea_res_combine_two!E91+sea_res_normal!E101+sea_res_same!F87</f>
         <v>0</v>
       </c>
-      <c r="AF13">
+      <c r="AH13">
         <v>1000</v>
       </c>
-      <c r="AG13">
+      <c r="AI13">
         <f>sea_res_combine_two!I91+sea_res_normal!I101+sea_res_same!J87</f>
         <v>2</v>
       </c>
-      <c r="AH13">
+      <c r="AJ13">
         <f>sea_res_combine_two!J91+sea_res_normal!J101+sea_res_same!K87</f>
         <v>0</v>
       </c>
-      <c r="AI13">
+      <c r="AK13">
         <f>sea_res_combine_two!K91+sea_res_normal!K101+sea_res_same!L87</f>
         <v>2</v>
       </c>
-      <c r="AK13">
+      <c r="AM13">
         <v>19000</v>
       </c>
-      <c r="AL13">
-        <f>AC13</f>
+      <c r="AN13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM13">
-        <f>AD13</f>
+      <c r="AO13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="27:39" x14ac:dyDescent="0.3">
+      <c r="BE13" s="1"/>
+    </row>
+    <row r="14" spans="27:57" x14ac:dyDescent="0.3">
       <c r="AA14">
         <v>21000</v>
       </c>
@@ -21359,27 +22879,36 @@
         <f>sea_res_combine_two!C92+sea_res_normal!C102+sea_res_same!D88</f>
         <v>0</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" s="1">
+        <f>SUM($AB$4:AB14)/SUM($AB$4:$AB$16)</f>
+        <v>1</v>
+      </c>
+      <c r="AD14">
         <f>sea_res_combine_two!D92+sea_res_normal!D102+sea_res_same!E88</f>
         <v>0</v>
       </c>
-      <c r="AD14">
+      <c r="AE14" s="1">
+        <f>SUM($AD$4:AD14)/SUM($AD$4:$AD$16)</f>
+        <v>1</v>
+      </c>
+      <c r="AF14">
         <f>sea_res_combine_two!E92+sea_res_normal!E102+sea_res_same!F88</f>
         <v>0</v>
       </c>
-      <c r="AK14">
+      <c r="AM14">
         <v>21000</v>
       </c>
-      <c r="AL14">
-        <f>AC14</f>
+      <c r="AN14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM14">
-        <f>AD14</f>
+      <c r="AO14">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="27:39" x14ac:dyDescent="0.3">
+      <c r="BE14" s="1"/>
+    </row>
+    <row r="15" spans="27:57" x14ac:dyDescent="0.3">
       <c r="AA15">
         <v>23000</v>
       </c>
@@ -21387,27 +22916,36 @@
         <f>sea_res_combine_two!C93+sea_res_normal!C103+sea_res_same!D89</f>
         <v>0</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" s="1">
+        <f>SUM($AB$4:AB15)/SUM($AB$4:$AB$16)</f>
+        <v>1</v>
+      </c>
+      <c r="AD15">
         <f>sea_res_combine_two!D93+sea_res_normal!D103+sea_res_same!E89</f>
         <v>0</v>
       </c>
-      <c r="AD15">
+      <c r="AE15" s="1">
+        <f>SUM($AD$4:AD15)/SUM($AD$4:$AD$16)</f>
+        <v>1</v>
+      </c>
+      <c r="AF15">
         <f>sea_res_combine_two!E93+sea_res_normal!E103+sea_res_same!F89</f>
         <v>0</v>
       </c>
-      <c r="AK15">
+      <c r="AM15">
         <v>23000</v>
       </c>
-      <c r="AL15">
-        <f>AC15</f>
+      <c r="AN15">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM15">
-        <f>AD15</f>
+      <c r="AO15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="27:39" x14ac:dyDescent="0.3">
+      <c r="BE15" s="1"/>
+    </row>
+    <row r="16" spans="27:57" x14ac:dyDescent="0.3">
       <c r="AA16">
         <v>25000</v>
       </c>
@@ -21415,37 +22953,47 @@
         <f>sea_res_combine_two!C94+sea_res_normal!C104+sea_res_same!D90</f>
         <v>0</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" s="1">
+        <f>SUM($AB$4:AB16)/SUM($AB$4:$AB$16)</f>
+        <v>1</v>
+      </c>
+      <c r="AD16">
         <f>sea_res_combine_two!D94+sea_res_normal!D104+sea_res_same!E90</f>
         <v>0</v>
       </c>
-      <c r="AD16">
+      <c r="AE16" s="1">
+        <f>SUM($AD$4:AD16)/SUM($AD$4:$AD$16)</f>
+        <v>1</v>
+      </c>
+      <c r="AF16">
         <f>sea_res_combine_two!E94+sea_res_normal!E104+sea_res_same!F90</f>
         <v>0</v>
       </c>
-      <c r="AK16">
+      <c r="AM16">
         <v>25000</v>
       </c>
-      <c r="AL16">
-        <f>AC16</f>
+      <c r="AN16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM16">
-        <f>AD16</f>
+      <c r="AO16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="27:39" x14ac:dyDescent="0.3">
-      <c r="AL17">
-        <f>SUM(AC4:AC16)</f>
+      <c r="BE16" s="1"/>
+    </row>
+    <row r="17" spans="27:57" x14ac:dyDescent="0.3">
+      <c r="AN17">
+        <f>SUM(AD4:AD16)</f>
         <v>75</v>
       </c>
-      <c r="AM17">
-        <f>SUM(AD4:AD16)</f>
+      <c r="AO17">
+        <f>SUM(AF4:AF16)</f>
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="27:39" x14ac:dyDescent="0.3">
+      <c r="BE17" s="1"/>
+    </row>
+    <row r="18" spans="27:57" x14ac:dyDescent="0.3">
       <c r="AA18" t="s">
         <v>254</v>
       </c>
@@ -21453,13 +23001,38 @@
         <f>SUM(AB4:AB16)</f>
         <v>97</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AF18" t="s">
         <v>255</v>
       </c>
-      <c r="AE18">
-        <f>SUM(AB4:AD16)</f>
-        <v>237</v>
-      </c>
+      <c r="AG18">
+        <f>SUM(AB4:AF16)</f>
+        <v>261.08109965635742</v>
+      </c>
+      <c r="BE18" s="1"/>
+    </row>
+    <row r="19" spans="27:57" x14ac:dyDescent="0.3">
+      <c r="BE19" s="1"/>
+    </row>
+    <row r="20" spans="27:57" x14ac:dyDescent="0.3">
+      <c r="BE20" s="1"/>
+    </row>
+    <row r="21" spans="27:57" x14ac:dyDescent="0.3">
+      <c r="BE21" s="1"/>
+    </row>
+    <row r="22" spans="27:57" x14ac:dyDescent="0.3">
+      <c r="BE22" s="1"/>
+    </row>
+    <row r="23" spans="27:57" x14ac:dyDescent="0.3">
+      <c r="BE23" s="1"/>
+    </row>
+    <row r="24" spans="27:57" x14ac:dyDescent="0.3">
+      <c r="BE24" s="1"/>
+    </row>
+    <row r="25" spans="27:57" x14ac:dyDescent="0.3">
+      <c r="BE25" s="1"/>
+    </row>
+    <row r="26" spans="27:57" x14ac:dyDescent="0.3">
+      <c r="BE26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
